--- a/assets/data/MSME Country Indicators - Latvia Summary.xlsx
+++ b/assets/data/MSME Country Indicators - Latvia Summary.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Summary" sheetId="1" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Latvia</t>
   </si>
@@ -19,6 +19,9 @@
     <t>MSME Participation on the Economy</t>
   </si>
   <si>
+    <t>Source Type: SME Associations (Most Widely Used)</t>
+  </si>
+  <si>
     <t>Micro</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>51.1</t>
   </si>
   <si>
+    <t>76.5</t>
+  </si>
+  <si>
     <t>Employment (absolute #)</t>
   </si>
   <si>
@@ -97,6 +103,9 @@
     <t>52</t>
   </si>
   <si>
+    <t>67.9</t>
+  </si>
+  <si>
     <t>Sector Distribution Details</t>
   </si>
   <si>
@@ -347,6 +356,12 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>SBS Eurostat</t>
+  </si>
+  <si>
+    <t>Sructural Business Statistics - Eurostat. NACE Rev.2. Available at http://epp.eurostat.ec.europa.eu/portal/page/portal/european_business/introduction</t>
   </si>
 </sst>
 </file>
@@ -354,7 +369,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -365,6 +380,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -397,26 +418,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="1"/>
     <xf numFmtId="0" fontId="2"/>
     <xf numFmtId="0" fontId="3"/>
     <xf numFmtId="0" fontId="4"/>
+    <xf numFmtId="0" fontId="5"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" xfId="2"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" xfId="3"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" xfId="4"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="name" xfId="1"/>
     <cellStyle name="title" xfId="2"/>
-    <cellStyle name="source" xfId="3"/>
-    <cellStyle name="HyperLink" xfId="4"/>
+    <cellStyle name="title_" xfId="3"/>
+    <cellStyle name="source" xfId="4"/>
+    <cellStyle name="HyperLink" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -424,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -440,447 +464,468 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="2" t="s">
+    <row r="9">
+      <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="C12" s="0" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="D12" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="0" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="B13" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="C13" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="D13" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="0" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="0" t="s">
+    </row>
+    <row r="19">
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="B20" s="0" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="C26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="0" t="s">
+      <c r="D28" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="E28" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>83</v>
+      <c r="A32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>93</v>
+      <c r="A34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="D41" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="E41" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="0" t="s">
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="B42" s="0" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="s">
+      <c r="C42" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="D42" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="E42" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="D37" s="2" t="s">
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="4" t="s">
+      <c r="D43" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="s">
+      <c r="E43" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A40" r:id="rId1"/>
+    <hyperlink ref="A46" r:id="rId1"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>

--- a/assets/data/MSME Country Indicators - Latvia Summary.xlsx
+++ b/assets/data/MSME Country Indicators - Latvia Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Latvia</t>
   </si>
@@ -104,6 +104,60 @@
   </si>
   <si>
     <t>67.9</t>
+  </si>
+  <si>
+    <t>Number of employees</t>
+  </si>
+  <si>
+    <t>Assets (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>Turnover (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>&lt;10</t>
+  </si>
+  <si>
+    <t>≤ €2 Millionlion (previously not defined)</t>
+  </si>
+  <si>
+    <t>≤ € 2 Millionlion</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>&lt;50</t>
+  </si>
+  <si>
+    <t>≤ €10 Millionlion (in 1996 €5 Millionlion)</t>
+  </si>
+  <si>
+    <t>≤ € 10 Millionlion</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>&lt;250</t>
+  </si>
+  <si>
+    <t>≤ €43 Millionlion (in 1996 € 27 Millionlion)</t>
+  </si>
+  <si>
+    <t>≤ € 50 Millionlion</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>&gt;249</t>
+  </si>
+  <si>
+    <t>&gt; €43 Millionlion (in 1996 € 27 Millionlion)</t>
+  </si>
+  <si>
+    <t>&gt; € 50 Millionlion</t>
   </si>
   <si>
     <t>Sector Distribution Details</t>
@@ -448,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -585,347 +639,414 @@
         <v>26</v>
       </c>
     </row>
+    <row r="23">
+      <c r="B23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>31</v>
+      <c r="A24" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="0" t="s">
+      <c r="D32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="D34" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E34" s="0" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="E38" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>96</v>
+      <c r="A40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="D44" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="E44" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="0" t="s">
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="B45" s="0" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="s">
+      <c r="C45" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="D45" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="E45" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="2" t="s">
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="4" t="s">
+      <c r="B46" s="0" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="4" t="s">
+      <c r="C46" s="0" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="5" t="s">
+      <c r="D46" s="0" t="s">
         <v>113</v>
       </c>
+      <c r="E46" s="0" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="s">
-        <v>114</v>
+      <c r="A47" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="s">
-        <v>115</v>
+      <c r="A50" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>116</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A46" r:id="rId1"/>
+    <hyperlink ref="A52" r:id="rId1"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>

--- a/assets/data/MSME Country Indicators - Latvia Summary.xlsx
+++ b/assets/data/MSME Country Indicators - Latvia Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>Latvia</t>
   </si>
@@ -403,19 +403,16 @@
     <t>Source:</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>SBS Main Indicators, Annual enterprise statistics by size class for special aggregates of activities (NACE Rev. 2)</t>
   </si>
   <si>
     <t>http://epp.eurostat.ec.europa.eu/portal/page/portal/european_business/data/database</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>SBS Eurostat</t>
-  </si>
-  <si>
-    <t>Sructural Business Statistics - Eurostat. NACE Rev.2. Available at http://epp.eurostat.ec.europa.eu/portal/page/portal/european_business/introduction</t>
   </si>
 </sst>
 </file>
@@ -502,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1025,29 +1022,31 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="s">
+    <row r="57">
+      <c r="A57" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="4" t="s">
-        <v>134</v>
+    <row r="58">
+      <c r="A58" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A52" r:id="rId1"/>
-  </hyperlinks>
   <headerFooter/>
 </worksheet>
 </file>
--- a/assets/data/MSME Country Indicators - Latvia Summary.xlsx
+++ b/assets/data/MSME Country Indicators - Latvia Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Latvia</t>
   </si>
@@ -46,25 +46,25 @@
     <t>Enterprises density (per 1000 people)</t>
   </si>
   <si>
-    <t>34.2</t>
+    <t>34.21</t>
   </si>
   <si>
     <t>4.2</t>
   </si>
   <si>
-    <t>38.4</t>
+    <t>38.41</t>
   </si>
   <si>
     <t>Employment (% of total)</t>
   </si>
   <si>
-    <t>25.4</t>
-  </si>
-  <si>
-    <t>51.1</t>
-  </si>
-  <si>
-    <t>76.5</t>
+    <t>25.35</t>
+  </si>
+  <si>
+    <t>51.11</t>
+  </si>
+  <si>
+    <t>76.46</t>
   </si>
   <si>
     <t>Employment (absolute #)</t>
@@ -82,13 +82,13 @@
     <t>Enterprises (% of total)</t>
   </si>
   <si>
-    <t>88.8</t>
-  </si>
-  <si>
-    <t>10.9</t>
-  </si>
-  <si>
-    <t>99.8</t>
+    <t>88.84</t>
+  </si>
+  <si>
+    <t>10.92</t>
+  </si>
+  <si>
+    <t>99.76</t>
   </si>
   <si>
     <t>Source: SBS Eurostat, 2011</t>
@@ -97,97 +97,100 @@
     <t>Value added to the economy (% of total)</t>
   </si>
   <si>
-    <t>15.9</t>
+    <t>15.91</t>
+  </si>
+  <si>
+    <t>52.04</t>
+  </si>
+  <si>
+    <t>67.95</t>
+  </si>
+  <si>
+    <t>Number of employees</t>
+  </si>
+  <si>
+    <t>Assets (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>Turnover (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>&lt;10</t>
+  </si>
+  <si>
+    <t>≤ €2 Millionlion (previously not defined)</t>
+  </si>
+  <si>
+    <t>≤ € 2 Millionlion</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>&lt;50</t>
+  </si>
+  <si>
+    <t>≤ €10 Millionlion (in 1996 €5 Millionlion)</t>
+  </si>
+  <si>
+    <t>≤ € 10 Millionlion</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>&lt;250</t>
+  </si>
+  <si>
+    <t>≤ €43 Millionlion (in 1996 € 27 Millionlion)</t>
+  </si>
+  <si>
+    <t>≤ € 50 Millionlion</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>&gt;249</t>
+  </si>
+  <si>
+    <t>&gt; €43 Millionlion (in 1996 € 27 Millionlion)</t>
+  </si>
+  <si>
+    <t>&gt; € 50 Millionlion</t>
+  </si>
+  <si>
+    <t>Sector Distribution Details</t>
+  </si>
+  <si>
+    <t>%Micro</t>
+  </si>
+  <si>
+    <t>%SMEs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industry </t>
+  </si>
+  <si>
+    <t>6,533</t>
+  </si>
+  <si>
+    <t>2,013</t>
+  </si>
+  <si>
+    <t>9.28</t>
+  </si>
+  <si>
+    <t>23.27</t>
+  </si>
+  <si>
+    <t>Mining and quarrying</t>
+  </si>
+  <si>
+    <t>145</t>
   </si>
   <si>
     <t>52</t>
-  </si>
-  <si>
-    <t>67.9</t>
-  </si>
-  <si>
-    <t>Number of employees</t>
-  </si>
-  <si>
-    <t>Assets (local currency, unless noted otherwise)</t>
-  </si>
-  <si>
-    <t>Turnover (local currency, unless noted otherwise)</t>
-  </si>
-  <si>
-    <t>&lt;10</t>
-  </si>
-  <si>
-    <t>≤ €2 Millionlion (previously not defined)</t>
-  </si>
-  <si>
-    <t>≤ € 2 Millionlion</t>
-  </si>
-  <si>
-    <t>Small</t>
-  </si>
-  <si>
-    <t>&lt;50</t>
-  </si>
-  <si>
-    <t>≤ €10 Millionlion (in 1996 €5 Millionlion)</t>
-  </si>
-  <si>
-    <t>≤ € 10 Millionlion</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>&lt;250</t>
-  </si>
-  <si>
-    <t>≤ €43 Millionlion (in 1996 € 27 Millionlion)</t>
-  </si>
-  <si>
-    <t>≤ € 50 Millionlion</t>
-  </si>
-  <si>
-    <t>Large</t>
-  </si>
-  <si>
-    <t>&gt;249</t>
-  </si>
-  <si>
-    <t>&gt; €43 Millionlion (in 1996 € 27 Millionlion)</t>
-  </si>
-  <si>
-    <t>&gt; € 50 Millionlion</t>
-  </si>
-  <si>
-    <t>Sector Distribution Details</t>
-  </si>
-  <si>
-    <t>%Micro</t>
-  </si>
-  <si>
-    <t>%SMEs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Industry </t>
-  </si>
-  <si>
-    <t>6,533</t>
-  </si>
-  <si>
-    <t>2,013</t>
-  </si>
-  <si>
-    <t>9.28</t>
-  </si>
-  <si>
-    <t>23.27</t>
-  </si>
-  <si>
-    <t>Mining and quarrying</t>
-  </si>
-  <si>
-    <t>145</t>
   </si>
   <si>
     <t>0.21</t>
@@ -747,303 +750,303 @@
         <v>58</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="0" t="s">
         <v>71</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="0" t="s">
         <v>79</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
